--- a/MT/t1.xlsx
+++ b/MT/t1.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shangjingwei/Documents/GitHub/python_lesson/MT/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9948"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -374,16 +382,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="154" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -406,4 +414,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>